--- a/test_data/DataSetForTesting.xlsx
+++ b/test_data/DataSetForTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobfehn/Documents/Uni/7. Semester/Thesis/Webservice/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FC7E97-E8A4-804F-A3C0-205A2B5CD0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA68E27-B436-5748-979E-7C3BC39B0EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{9DEADDE0-F9AA-D64D-B8E2-B7DD8B179BBE}"/>
   </bookViews>
@@ -4121,9 +4121,6 @@
     <t>C: 0 ; M: 5 + 5 + 1 + 7 ;</t>
   </si>
   <si>
-    <t>C: 0 ; M: 28 + 1 ;</t>
-  </si>
-  <si>
     <t>C: 0 ; M: 36 ;</t>
   </si>
   <si>
@@ -4484,7 +4481,10 @@
     <t>C: 2 + 1 + 1 ; M: 51 + 11 + 5 + 6 + 21 + 28 + 1 ;</t>
   </si>
   <si>
-    <t>C: 2 + 1 + 1 ; M: 51 + 9 + 5 + 5 + 21 ;</t>
+    <t>C: 2 + 1 ; M: 51 + 9 + 5 + 5 + 21 ;</t>
+  </si>
+  <si>
+    <t>C: 1 ; M: 28 + 1 ;</t>
   </si>
 </sst>
 </file>
@@ -4921,8 +4921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89784638-68A1-8249-8E72-BC8438B6227E}">
   <dimension ref="B1:T277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T141" sqref="T141"/>
+    <sheetView tabSelected="1" topLeftCell="N195" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R208" sqref="R208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4950,7 +4950,7 @@
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>586</v>
       </c>
       <c r="K2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L2" t="s">
         <v>758</v>
@@ -5006,7 +5006,7 @@
         <v>1305</v>
       </c>
       <c r="S2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -5271,7 +5271,7 @@
         <v>1213</v>
       </c>
       <c r="S7" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -5324,7 +5324,7 @@
         <v>1213</v>
       </c>
       <c r="S8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -5368,7 +5368,7 @@
         <v>44978</v>
       </c>
       <c r="Q9" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="R9" t="s">
         <v>430</v>
@@ -5477,7 +5477,7 @@
         <v>44978</v>
       </c>
       <c r="Q11" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="R11" t="s">
         <v>1208</v>
@@ -5530,13 +5530,13 @@
         <v>44978</v>
       </c>
       <c r="Q12" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="R12" t="s">
         <v>1254</v>
       </c>
       <c r="S12" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -5783,16 +5783,16 @@
         <v>799</v>
       </c>
       <c r="O17" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="P17" s="4">
         <v>44978</v>
       </c>
       <c r="Q17" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="R17" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="S17" t="s">
         <v>1207</v>
@@ -5842,7 +5842,7 @@
         <v>44978</v>
       </c>
       <c r="Q18" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="R18" t="s">
         <v>1311</v>
@@ -5942,7 +5942,7 @@
         <v>44978</v>
       </c>
       <c r="Q20" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="R20" t="s">
         <v>430</v>
@@ -6110,10 +6110,10 @@
         <v>1207</v>
       </c>
       <c r="R23" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="S23" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -6269,7 +6269,7 @@
         <v>1207</v>
       </c>
       <c r="S26" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -6313,7 +6313,7 @@
         <v>44991</v>
       </c>
       <c r="Q27" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="R27" t="s">
         <v>430</v>
@@ -6519,7 +6519,7 @@
         <v>44991</v>
       </c>
       <c r="Q31" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="R31" t="s">
         <v>1297</v>
@@ -6725,13 +6725,13 @@
         <v>44991</v>
       </c>
       <c r="Q35" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R35" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="S35" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="T35" t="s">
         <v>1312</v>
@@ -6881,13 +6881,13 @@
         <v>44992</v>
       </c>
       <c r="Q38" t="s">
+        <v>1364</v>
+      </c>
+      <c r="R38" t="s">
         <v>1365</v>
       </c>
-      <c r="R38" t="s">
-        <v>1366</v>
-      </c>
       <c r="S38" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -6940,7 +6940,7 @@
         <v>1212</v>
       </c>
       <c r="S39" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -6993,7 +6993,7 @@
         <v>1212</v>
       </c>
       <c r="S40" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -7040,13 +7040,13 @@
         <v>44992</v>
       </c>
       <c r="Q41" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="R41" t="s">
         <v>1314</v>
       </c>
       <c r="S41" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -7099,7 +7099,7 @@
         <v>1212</v>
       </c>
       <c r="S42" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -7355,13 +7355,13 @@
         <v>44992</v>
       </c>
       <c r="Q47" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="R47" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="S47" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -7408,13 +7408,13 @@
         <v>44992</v>
       </c>
       <c r="Q48" t="s">
+        <v>1390</v>
+      </c>
+      <c r="R48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="S48" t="s">
         <v>1391</v>
-      </c>
-      <c r="R48" t="s">
-        <v>1467</v>
-      </c>
-      <c r="S48" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -7626,7 +7626,7 @@
         <v>1319</v>
       </c>
       <c r="S52" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -7785,7 +7785,7 @@
         <v>1212</v>
       </c>
       <c r="S55" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="56" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -7891,7 +7891,7 @@
         <v>1223</v>
       </c>
       <c r="R57" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="S57" t="s">
         <v>1271</v>
@@ -7938,22 +7938,22 @@
         <v>837</v>
       </c>
       <c r="O58" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="P58" s="4">
         <v>44992</v>
       </c>
       <c r="Q58" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="R58" t="s">
         <v>1321</v>
       </c>
       <c r="S58" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="T58" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="59" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -8006,7 +8006,7 @@
         <v>1207</v>
       </c>
       <c r="S59" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -8059,7 +8059,7 @@
         <v>1313</v>
       </c>
       <c r="S60" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="61" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -8156,22 +8156,22 @@
         <v>841</v>
       </c>
       <c r="O62" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="P62" s="4">
         <v>44992</v>
       </c>
       <c r="Q62" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="R62" t="s">
         <v>1322</v>
       </c>
       <c r="S62" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="T62" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="63" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -8224,7 +8224,7 @@
         <v>1323</v>
       </c>
       <c r="S63" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="T63" t="s">
         <v>1312</v>
@@ -8271,13 +8271,13 @@
         <v>843</v>
       </c>
       <c r="O64" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="P64" s="4">
         <v>44992</v>
       </c>
       <c r="Q64" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="R64" t="s">
         <v>1213</v>
@@ -8539,13 +8539,13 @@
         <v>44992</v>
       </c>
       <c r="Q69" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="R69" t="s">
         <v>1215</v>
       </c>
       <c r="S69" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="70" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -8598,7 +8598,7 @@
         <v>1237</v>
       </c>
       <c r="S70" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="71" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -8701,7 +8701,7 @@
         <v>1325</v>
       </c>
       <c r="S72" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="73" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -8960,7 +8960,7 @@
         <v>1326</v>
       </c>
       <c r="S77" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="78" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -9013,7 +9013,7 @@
         <v>1327</v>
       </c>
       <c r="S78" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="79" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -9119,7 +9119,7 @@
         <v>1328</v>
       </c>
       <c r="S80" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="81" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -9372,10 +9372,10 @@
         <v>1238</v>
       </c>
       <c r="R85" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="S85" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="86" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -9481,7 +9481,7 @@
         <v>1207</v>
       </c>
       <c r="S87" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="88" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -9637,7 +9637,7 @@
         <v>1329</v>
       </c>
       <c r="S90" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="91" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
         <v>1331</v>
       </c>
       <c r="S96" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="97" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -9990,13 +9990,13 @@
         <v>45012</v>
       </c>
       <c r="Q97" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="R97" t="s">
         <v>1204</v>
       </c>
       <c r="S97" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="T97" t="s">
         <v>1312</v>
@@ -10102,10 +10102,10 @@
         <v>1208</v>
       </c>
       <c r="S99" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="T99" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="100" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -10211,7 +10211,7 @@
         <v>1334</v>
       </c>
       <c r="S101" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="102" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -10467,7 +10467,7 @@
         <v>1208</v>
       </c>
       <c r="S106" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="107" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -10623,7 +10623,7 @@
         <v>1208</v>
       </c>
       <c r="S109" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="110" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -11035,7 +11035,7 @@
         <v>45012</v>
       </c>
       <c r="Q117" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="R117" t="s">
         <v>1266</v>
@@ -11094,10 +11094,10 @@
         <v>1337</v>
       </c>
       <c r="S118" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="T118" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="119" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -11150,7 +11150,7 @@
         <v>1338</v>
       </c>
       <c r="S119" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="120" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -11197,13 +11197,13 @@
         <v>45012</v>
       </c>
       <c r="Q120" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="R120" t="s">
         <v>1340</v>
       </c>
       <c r="S120" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="121" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -11300,7 +11300,7 @@
         <v>45012</v>
       </c>
       <c r="Q122" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="R122" t="s">
         <v>430</v>
@@ -11309,7 +11309,7 @@
         <v>430</v>
       </c>
       <c r="T122" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="123" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -11353,7 +11353,7 @@
         <v>45012</v>
       </c>
       <c r="Q123" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="R123" t="s">
         <v>430</v>
@@ -11362,7 +11362,7 @@
         <v>430</v>
       </c>
       <c r="T123" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="124" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -11565,7 +11565,7 @@
         <v>45012</v>
       </c>
       <c r="Q127" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="R127" t="s">
         <v>430</v>
@@ -11668,13 +11668,13 @@
         <v>45012</v>
       </c>
       <c r="Q129" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="R129" t="s">
         <v>1271</v>
       </c>
       <c r="S129" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="130" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -11727,7 +11727,7 @@
         <v>1213</v>
       </c>
       <c r="S130" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="131" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -11986,7 +11986,7 @@
         <v>1207</v>
       </c>
       <c r="S135" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="136" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -12248,7 +12248,7 @@
         <v>1213</v>
       </c>
       <c r="S140" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="141" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -12295,13 +12295,13 @@
         <v>45034</v>
       </c>
       <c r="Q141" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="R141" t="s">
         <v>1204</v>
       </c>
       <c r="S141" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="142" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -12345,7 +12345,7 @@
         <v>45034</v>
       </c>
       <c r="Q142" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="R142" t="s">
         <v>430</v>
@@ -12498,7 +12498,7 @@
         <v>45034</v>
       </c>
       <c r="Q145" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="R145" t="s">
         <v>430</v>
@@ -12878,7 +12878,7 @@
         <v>1344</v>
       </c>
       <c r="S152" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="153" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -12925,13 +12925,13 @@
         <v>45034</v>
       </c>
       <c r="Q153" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="R153" t="s">
         <v>1345</v>
       </c>
       <c r="S153" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="154" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -13078,13 +13078,13 @@
         <v>45034</v>
       </c>
       <c r="Q156" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="R156" t="s">
         <v>1271</v>
       </c>
       <c r="S156" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="157" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -13187,7 +13187,7 @@
         <v>1346</v>
       </c>
       <c r="S158" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="159" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -13387,13 +13387,13 @@
         <v>45034</v>
       </c>
       <c r="Q162" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="R162" t="s">
         <v>1253</v>
       </c>
       <c r="S162" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="163" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -13758,7 +13758,7 @@
         <v>1213</v>
       </c>
       <c r="S169" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="170" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -14008,13 +14008,13 @@
         <v>950</v>
       </c>
       <c r="O174" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="P174" s="4">
         <v>45034</v>
       </c>
       <c r="Q174" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="R174" t="s">
         <v>430</v>
@@ -14023,7 +14023,7 @@
         <v>430</v>
       </c>
       <c r="T174" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="175" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -14079,7 +14079,7 @@
         <v>430</v>
       </c>
       <c r="T175" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="176" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -14135,7 +14135,7 @@
         <v>1271</v>
       </c>
       <c r="S176" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="177" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -14991,7 +14991,7 @@
         <v>45034</v>
       </c>
       <c r="Q193" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="R193" t="s">
         <v>430</v>
@@ -15259,7 +15259,7 @@
         <v>1271</v>
       </c>
       <c r="S198" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="199" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -15768,13 +15768,13 @@
         <v>45034</v>
       </c>
       <c r="Q208" t="s">
+        <v>1473</v>
+      </c>
+      <c r="R208" t="s">
+        <v>1475</v>
+      </c>
+      <c r="S208" t="s">
         <v>1474</v>
-      </c>
-      <c r="R208" t="s">
-        <v>1354</v>
-      </c>
-      <c r="S208" t="s">
-        <v>1475</v>
       </c>
       <c r="T208" t="s">
         <v>1312</v>
@@ -15827,10 +15827,10 @@
         <v>1281</v>
       </c>
       <c r="R209" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="S209" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="210" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -15933,7 +15933,7 @@
         <v>1213</v>
       </c>
       <c r="S211" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="212" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -16086,10 +16086,10 @@
         <v>45034</v>
       </c>
       <c r="Q214" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="R214" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="S214" t="s">
         <v>1207</v>
@@ -16139,13 +16139,13 @@
         <v>45012</v>
       </c>
       <c r="Q215" t="s">
+        <v>1357</v>
+      </c>
+      <c r="R215" t="s">
         <v>1358</v>
       </c>
-      <c r="R215" t="s">
-        <v>1359</v>
-      </c>
       <c r="S215" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="216" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -16248,7 +16248,7 @@
         <v>1285</v>
       </c>
       <c r="R217" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="S217" t="s">
         <v>1213</v>
@@ -16354,7 +16354,7 @@
         <v>1208</v>
       </c>
       <c r="S219" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="220" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -16557,10 +16557,10 @@
         <v>1287</v>
       </c>
       <c r="R223" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="S223" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="224" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -16663,7 +16663,7 @@
         <v>1213</v>
       </c>
       <c r="S225" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="226" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -16916,7 +16916,7 @@
         <v>1333</v>
       </c>
       <c r="S230" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="231" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -16963,10 +16963,10 @@
         <v>45012</v>
       </c>
       <c r="Q231" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="R231" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="S231" t="s">
         <v>1215</v>
@@ -17078,7 +17078,7 @@
         <v>1288</v>
       </c>
       <c r="S233" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="234" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -17128,7 +17128,7 @@
         <v>1292</v>
       </c>
       <c r="R234" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="S234" t="s">
         <v>1214</v>
@@ -17231,13 +17231,13 @@
         <v>45012</v>
       </c>
       <c r="Q236" t="s">
+        <v>1364</v>
+      </c>
+      <c r="R236" t="s">
         <v>1365</v>
       </c>
-      <c r="R236" t="s">
-        <v>1366</v>
-      </c>
       <c r="S236" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="237" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -17393,7 +17393,7 @@
         <v>1271</v>
       </c>
       <c r="S239" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="240" spans="2:20" ht="18" x14ac:dyDescent="0.2">
@@ -17543,13 +17543,13 @@
         <v>45012</v>
       </c>
       <c r="Q242" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="R242" t="s">
         <v>1254</v>
       </c>
       <c r="S242" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="243" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -17649,10 +17649,10 @@
         <v>1294</v>
       </c>
       <c r="R244" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="S244" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="245" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -17755,7 +17755,7 @@
         <v>1207</v>
       </c>
       <c r="S246" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="247" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -17808,7 +17808,7 @@
         <v>1207</v>
       </c>
       <c r="S247" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="248" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -17861,7 +17861,7 @@
         <v>1333</v>
       </c>
       <c r="S248" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="249" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -17908,13 +17908,13 @@
         <v>45012</v>
       </c>
       <c r="Q249" t="s">
+        <v>1367</v>
+      </c>
+      <c r="R249" t="s">
         <v>1368</v>
       </c>
-      <c r="R249" t="s">
-        <v>1369</v>
-      </c>
       <c r="S249" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="250" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -18332,7 +18332,7 @@
         <v>1338</v>
       </c>
       <c r="S257" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="258" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -18435,7 +18435,7 @@
         <v>1299</v>
       </c>
       <c r="R259" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="S259" t="s">
         <v>1207</v>
@@ -18491,7 +18491,7 @@
         <v>1213</v>
       </c>
       <c r="S260" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="261" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -18747,7 +18747,7 @@
         <v>1302</v>
       </c>
       <c r="R265" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="S265" t="s">
         <v>1207</v>
@@ -18847,13 +18847,13 @@
         <v>45012</v>
       </c>
       <c r="Q267" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="R267" t="s">
         <v>1245</v>
       </c>
       <c r="S267" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="268" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -19159,7 +19159,7 @@
         <v>1329</v>
       </c>
       <c r="S273" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="274" spans="2:19" ht="18" x14ac:dyDescent="0.2">
@@ -19259,10 +19259,10 @@
         <v>45012</v>
       </c>
       <c r="Q275" t="s">
+        <v>1372</v>
+      </c>
+      <c r="R275" t="s">
         <v>1373</v>
-      </c>
-      <c r="R275" t="s">
-        <v>1374</v>
       </c>
       <c r="S275" t="s">
         <v>1260</v>
